--- a/reporting_fund/fund_template.xlsx
+++ b/reporting_fund/fund_template.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xlwings-demo/reporting_fund/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4C359B-7490-4545-88CF-F2C52AF6EAD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3509365A-3A8F-724B-A2ED-9EEB2E1076DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5140" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{2269DA39-2FA8-EE4B-884F-E4AE05C32F51}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Config" sheetId="3" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$83</definedName>
+    <definedName name="date_format">Config!$B$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$A$1:$N$83</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>xlwings Fund</t>
   </si>
@@ -233,6 +235,15 @@
   <si>
     <t xml:space="preserve">      {{ reference_date }}</t>
   </si>
+  <si>
+    <t>Date format</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
 </sst>
 </file>
 
@@ -301,7 +312,7 @@
       <name val="Avenir Heavy"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +328,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,7 +370,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -400,6 +417,7 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3184,25 +3202,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C44023-5623-E647-83FE-FCAF22653932}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E2712"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D9C90E-6834-4F4F-8885-2B2A155A9D2D}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C7744F0-9332-0946-9525-FF7F853DA7F8}">
+          <x14:formula1>
+            <xm:f>Data!$G$1:$G$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C44023-5623-E647-83FE-FCAF22653932}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G2712"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>57</v>
       </c>
       <c r="D1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -3215,50 +3271,53 @@
       <c r="E2" s="14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">

--- a/reporting_fund/fund_template.xlsx
+++ b/reporting_fund/fund_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xlwings-demo/reporting_fund/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3509365A-3A8F-724B-A2ED-9EEB2E1076DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995DEB3F-3127-4941-9E95-8C8567096C0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5140" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{2269DA39-2FA8-EE4B-884F-E4AE05C32F51}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="date_format">Config!$B$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$A$1:$N$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$A$2:$N$84</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>xlwings Fund</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Top ten Holdings (% of Total)</t>
   </si>
   <si>
-    <t>www.xlwings.org</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>xlwings</t>
-  </si>
-  <si>
     <t xml:space="preserve">      {{ reference_date }}</t>
   </si>
   <si>
@@ -244,15 +238,15 @@
   <si>
     <t>UK</t>
   </si>
+  <si>
+    <t>&lt;frame&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
-  </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -305,11 +299,6 @@
       <color theme="10"/>
       <name val="Avenir Book"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Avenir Heavy"/>
     </font>
   </fonts>
   <fills count="5">
@@ -370,7 +359,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -388,9 +377,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -398,33 +384,77 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -445,253 +475,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.3741830065359476E-2"/>
-          <c:y val="4.4349315068493149E-2"/>
-          <c:w val="0.89465691788526436"/>
-          <c:h val="0.85154109589041094"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:areaChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="23A637">
-                <a:alpha val="52000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln w="22225">
-              <a:solidFill>
-                <a:srgbClr val="23A637"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>Data!$A$2:$A$2712</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="2711"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$B$2:$B$2712</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2711"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8FB2-1F4D-9F8D-8E21C642ECB0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="322474863"/>
-        <c:axId val="344983663"/>
-      </c:areaChart>
-      <c:dateAx>
-        <c:axId val="322474863"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-409]yyyy;@" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="344983663"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="344983663"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="322474863"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -932,6 +716,252 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.9996860440291853E-2"/>
+          <c:y val="4.4349315068493149E-2"/>
+          <c:w val="0.89915784450388681"/>
+          <c:h val="0.85154109589041094"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="23A637">
+                <a:alpha val="52000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:srgbClr val="23A637"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$2712</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="2711"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$2:$B$2712</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2711"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-91D9-6E46-8CB8-E4CA763F481B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="322474863"/>
+        <c:axId val="344983663"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="322474863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]yyyy;@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344983663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="344983663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="322474863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1013,6 +1043,509 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1528,560 +2061,19 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7370537C-5A0F-1748-A0C1-CE2EC2FD89F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2103,131 +2095,23 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A6D3651-A48F-B140-9290-797A1F7A3BE3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4191000" y="12331700"/>
-          <a:ext cx="7442200" cy="977900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="182880" tIns="182880" rIns="182880" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>Performance data represents past performance, which does not guarentee future results. Current performance may</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>  differ from figures shown. The fund's investment</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" baseline="0">
-              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t> returns and principal values will change with market condiation, and you may have a gain or a loss when you sell your shares. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2244,10 +2128,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2265,6 +2149,44 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9904394-01E0-E045-89D2-7D7FA6655F82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2570,61 +2492,57 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="10.83203125" style="2"/>
     <col min="4" max="4" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="12.5" style="2" customWidth="1"/>
+    <col min="7" max="14" width="11.6640625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" ht="37" x14ac:dyDescent="0.55000000000000004">
-      <c r="D2" s="16" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>66</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="23" t="s">
-        <v>64</v>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="37" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" s="15" t="s">
+        <v>0</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D3" s="6"/>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="K3" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D4" s="6"/>
@@ -2665,539 +2583,553 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="7" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="6"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="13" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="F15" s="8" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="18" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="17" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="10">
+        <v>36586</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="42" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F49" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+    </row>
+    <row r="50" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="2">
+        <v>5</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="17"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="2">
+        <v>13</v>
+      </c>
+      <c r="N52" s="12"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="2">
         <v>3</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>15</v>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>46</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>4</v>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>5</v>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>6</v>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>7</v>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="11">
-        <v>36586</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="10">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="F39" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-    </row>
-    <row r="41" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="63" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="21" t="s">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>33</v>
+      <c r="D64" s="2">
+        <v>1</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J42" s="13"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>35</v>
+      <c r="D65" s="2">
+        <v>1.75</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-    </row>
-    <row r="49" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="2">
-        <v>13</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D52" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="12"/>
-      <c r="F53" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="62" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" s="13">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="13">
+      <c r="D66" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="F67" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-    </row>
-    <row r="69" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F69" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="22"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N70" s="13"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N71" s="13"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N72" s="13"/>
+      <c r="N72" s="12"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N73" s="13"/>
+      <c r="N73" s="12"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N74" s="13"/>
+      <c r="N74" s="12"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N75" s="13"/>
+      <c r="N75" s="12"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N76" s="13"/>
-    </row>
-    <row r="82" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N83" s="18" t="s">
-        <v>55</v>
-      </c>
+      <c r="N76" s="12"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N77" s="12"/>
+    </row>
+    <row r="83" spans="14:14" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="14:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N84" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:N3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="N83" r:id="rId1" xr:uid="{E41215C2-4CB0-5F42-93DE-CC299AA07E1B}"/>
-  </hyperlinks>
+  <conditionalFormatting sqref="A51:D53">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47:N47">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52:N52">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:N19">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:D66">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:D38">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:D46">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Avenir Book,Regular"&amp;K000000xlwings&amp;R&amp;"Avenir Book,Regular"&amp;K000000www.xlwings.org</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3213,10 +3145,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3249,13 +3181,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3266,26 +3198,26 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>0.01</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
-      <c r="E3" s="14"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
-      <c r="E4" s="14"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
-      <c r="E5" s="14"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>

--- a/reporting_fund/fund_template.xlsx
+++ b/reporting_fund/fund_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xlwings-demo/reporting_fund/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995DEB3F-3127-4941-9E95-8C8567096C0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFEDD60-11EF-9741-8ADF-4702171C475F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5140" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{2269DA39-2FA8-EE4B-884F-E4AE05C32F51}"/>
   </bookViews>
@@ -40,9 +40,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
-  <si>
-    <t>xlwings Fund</t>
-  </si>
   <si>
     <t>Fund Fact Sheet | Share Classes: A, C, Advisor</t>
   </si>
@@ -240,6 +237,9 @@
   </si>
   <si>
     <t>&lt;frame&gt;</t>
+  </si>
+  <si>
+    <t>{{ fund_name }}</t>
   </si>
 </sst>
 </file>
@@ -2508,10 +2508,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2529,7 +2529,7 @@
     </row>
     <row r="3" spans="1:14" ht="37" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" s="15" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
@@ -2538,7 +2538,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="1"/>
       <c r="K3" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="8" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D8" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -2627,13 +2627,13 @@
     <row r="13" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -2646,10 +2646,10 @@
     </row>
     <row r="18" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -2662,21 +2662,21 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F21" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -2689,15 +2689,15 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F23" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -2780,17 +2780,17 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2798,15 +2798,15 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="10">
         <v>36586</v>
@@ -2814,15 +2814,15 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="10">
         <v>52</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -2838,39 +2838,39 @@
     </row>
     <row r="42" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="17" t="s">
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="10" t="s">
+      <c r="C44" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D44" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -2883,27 +2883,27 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="F46" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F49" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -2947,18 +2947,18 @@
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D51" s="2">
         <v>5</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52" s="2">
         <v>13</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D53" s="2">
         <v>3</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -2999,22 +2999,22 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -3022,17 +3022,17 @@
     </row>
     <row r="63" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>1</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>1.75</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D66" s="2">
         <v>0.75</v>
@@ -3056,7 +3056,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -3145,10 +3145,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3181,13 +3181,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3198,13 +3198,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="13">
         <v>0.01</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
